--- a/biology/Médecine/Temu_hitam/Temu_hitam.xlsx
+++ b/biology/Médecine/Temu_hitam/Temu_hitam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcuma aeruginosa
 Le Temu hitam (Curcuma aeruginosa) est une espèce de plantes herbacées rhizomateuses vivaces du genre Curcuma de la famille des Zingibéracées.
 Originaire de l'Asie du Sud-Est, de la Birmanie (Myanmar) à l'île de Java.
-William Roxburgh va le décrire en 1810 en page 335 du volume 10 de la revue "Asiatic Research". Il sera republié par William Carey dans l'ouvrage posthume de William Roxburgh, en anglais, Flora Indica, Tome 1 page 27 [1].
+William Roxburgh va le décrire en 1810 en page 335 du volume 10 de la revue "Asiatic Research". Il sera republié par William Carey dans l'ouvrage posthume de William Roxburgh, en anglais, Flora Indica, Tome 1 page 27 .
 Planté dans les jardins ou sur les plantations, le "Temu hitam" se trouve  aussi communément à l'état sauvage dans les forêts de teck, les prairies, entre 400-750 m d'altitude.
 </t>
         </is>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,7 +555,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On s'en sert comme plante médicinale, mais également comme épice entrant dans la composition de plats et sauces en Indonésie.
 </t>
